--- a/Team-Data/2012-13/12-4-2012-13.xlsx
+++ b/Team-Data/2012-13/12-4-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>2.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE2" t="n">
         <v>10</v>
@@ -756,13 +823,13 @@
         <v>8</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK2" t="n">
         <v>8</v>
@@ -774,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO2" t="n">
         <v>30</v>
@@ -786,13 +853,13 @@
         <v>28</v>
       </c>
       <c r="AR2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS2" t="n">
         <v>22</v>
       </c>
       <c r="AT2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU2" t="n">
         <v>3</v>
@@ -804,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="AX2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY2" t="n">
         <v>10</v>
@@ -813,10 +880,10 @@
         <v>2</v>
       </c>
       <c r="BA2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC2" t="n">
         <v>9</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-4-2012-13</t>
+          <t>2012-12-04</t>
         </is>
       </c>
     </row>
@@ -926,19 +993,19 @@
         <v>-0.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE3" t="n">
         <v>10</v>
       </c>
       <c r="AF3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI3" t="n">
         <v>14</v>
@@ -956,13 +1023,13 @@
         <v>29</v>
       </c>
       <c r="AN3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO3" t="n">
         <v>9</v>
       </c>
       <c r="AP3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ3" t="n">
         <v>3</v>
@@ -980,7 +1047,7 @@
         <v>2</v>
       </c>
       <c r="AV3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW3" t="n">
         <v>14</v>
@@ -995,7 +1062,7 @@
         <v>19</v>
       </c>
       <c r="BA3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB3" t="n">
         <v>15</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-4-2012-13</t>
+          <t>2012-12-04</t>
         </is>
       </c>
     </row>
@@ -1030,115 +1097,115 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="n">
         <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>0.647</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H4" t="n">
         <v>48.3</v>
       </c>
       <c r="I4" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J4" t="n">
-        <v>81.40000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L4" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="M4" t="n">
-        <v>22.2</v>
+        <v>21.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.342</v>
+        <v>0.335</v>
       </c>
       <c r="O4" t="n">
-        <v>16.8</v>
+        <v>16.6</v>
       </c>
       <c r="P4" t="n">
         <v>23.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.725</v>
+        <v>0.719</v>
       </c>
       <c r="R4" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="S4" t="n">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
       <c r="T4" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U4" t="n">
         <v>21.6</v>
       </c>
       <c r="V4" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="W4" t="n">
         <v>6.9</v>
       </c>
       <c r="X4" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>18.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.2</v>
+        <v>95.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AE4" t="n">
         <v>6</v>
       </c>
       <c r="AF4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG4" t="n">
         <v>6</v>
       </c>
       <c r="AH4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI4" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK4" t="n">
         <v>17</v>
       </c>
       <c r="AL4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AN4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO4" t="n">
         <v>18</v>
@@ -1147,19 +1214,19 @@
         <v>14</v>
       </c>
       <c r="AQ4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AS4" t="n">
         <v>26</v>
       </c>
       <c r="AT4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV4" t="n">
         <v>4</v>
@@ -1168,19 +1235,19 @@
         <v>25</v>
       </c>
       <c r="AX4" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AY4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AZ4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BA4" t="n">
         <v>4</v>
       </c>
       <c r="BB4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BC4" t="n">
         <v>7</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-4-2012-13</t>
+          <t>2012-12-04</t>
         </is>
       </c>
     </row>
@@ -1290,10 +1357,10 @@
         <v>-5.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>16</v>
@@ -1308,7 +1375,7 @@
         <v>26</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK5" t="n">
         <v>28</v>
@@ -1317,13 +1384,13 @@
         <v>17</v>
       </c>
       <c r="AM5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP5" t="n">
         <v>5</v>
@@ -1335,10 +1402,10 @@
         <v>14</v>
       </c>
       <c r="AS5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU5" t="n">
         <v>29</v>
@@ -1362,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="BB5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC5" t="n">
         <v>28</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-4-2012-13</t>
+          <t>2012-12-04</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>0.533</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
       </c>
       <c r="I6" t="n">
-        <v>35.3</v>
+        <v>35.8</v>
       </c>
       <c r="J6" t="n">
-        <v>80.59999999999999</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.438</v>
+        <v>0.441</v>
       </c>
       <c r="L6" t="n">
         <v>3.9</v>
@@ -1424,76 +1491,76 @@
         <v>12.1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.321</v>
+        <v>0.32</v>
       </c>
       <c r="O6" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P6" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="Q6" t="n">
         <v>0.789</v>
       </c>
       <c r="R6" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="S6" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="T6" t="n">
-        <v>44.2</v>
+        <v>44.1</v>
       </c>
       <c r="U6" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="V6" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="W6" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="X6" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AA6" t="n">
         <v>21.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.3</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AD6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI6" t="n">
         <v>20</v>
       </c>
-      <c r="AE6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>24</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL6" t="n">
         <v>30</v>
@@ -1508,7 +1575,7 @@
         <v>7</v>
       </c>
       <c r="AP6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ6" t="n">
         <v>5</v>
@@ -1523,28 +1590,28 @@
         <v>7</v>
       </c>
       <c r="AU6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AW6" t="n">
         <v>24</v>
       </c>
       <c r="AX6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
         <v>5</v>
       </c>
       <c r="BA6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BC6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-4-2012-13</t>
+          <t>2012-12-04</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>27</v>
@@ -1666,10 +1733,10 @@
         <v>28</v>
       </c>
       <c r="AH7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ7" t="n">
         <v>3</v>
@@ -1684,7 +1751,7 @@
         <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO7" t="n">
         <v>19</v>
@@ -1693,7 +1760,7 @@
         <v>19</v>
       </c>
       <c r="AQ7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR7" t="n">
         <v>2</v>
@@ -1702,13 +1769,13 @@
         <v>28</v>
       </c>
       <c r="AT7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW7" t="n">
         <v>8</v>
@@ -1720,13 +1787,13 @@
         <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA7" t="n">
         <v>18</v>
       </c>
       <c r="BB7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC7" t="n">
         <v>27</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-4-2012-13</t>
+          <t>2012-12-04</t>
         </is>
       </c>
     </row>
@@ -1836,22 +1903,22 @@
         <v>-1.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF8" t="n">
         <v>16</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="n">
         <v>15</v>
@@ -1863,7 +1930,7 @@
         <v>7</v>
       </c>
       <c r="AM8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN8" t="n">
         <v>4</v>
@@ -1881,10 +1948,10 @@
         <v>27</v>
       </c>
       <c r="AS8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU8" t="n">
         <v>11</v>
@@ -1893,13 +1960,13 @@
         <v>14</v>
       </c>
       <c r="AW8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ8" t="n">
         <v>25</v>
@@ -1908,10 +1975,10 @@
         <v>17</v>
       </c>
       <c r="BB8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-4-2012-13</t>
+          <t>2012-12-04</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
         <v>10</v>
@@ -2030,7 +2097,7 @@
         <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI9" t="n">
         <v>3</v>
@@ -2042,10 +2109,10 @@
         <v>9</v>
       </c>
       <c r="AL9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN9" t="n">
         <v>25</v>
@@ -2054,7 +2121,7 @@
         <v>20</v>
       </c>
       <c r="AP9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ9" t="n">
         <v>29</v>
@@ -2072,28 +2139,28 @@
         <v>12</v>
       </c>
       <c r="AV9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY9" t="n">
         <v>25</v>
       </c>
       <c r="AZ9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB9" t="n">
         <v>8</v>
       </c>
       <c r="BC9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-4-2012-13</t>
+          <t>2012-12-04</t>
         </is>
       </c>
     </row>
@@ -2221,16 +2288,16 @@
         <v>24</v>
       </c>
       <c r="AK10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL10" t="n">
         <v>26</v>
       </c>
       <c r="AM10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO10" t="n">
         <v>15</v>
@@ -2245,10 +2312,10 @@
         <v>17</v>
       </c>
       <c r="AS10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU10" t="n">
         <v>20</v>
@@ -2260,13 +2327,13 @@
         <v>27</v>
       </c>
       <c r="AX10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY10" t="n">
         <v>18</v>
       </c>
       <c r="AZ10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA10" t="n">
         <v>11</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-4-2012-13</t>
+          <t>2012-12-04</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2406,16 +2473,16 @@
         <v>10</v>
       </c>
       <c r="AL11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN11" t="n">
         <v>19</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
         <v>15</v>
@@ -2451,7 +2518,7 @@
         <v>29</v>
       </c>
       <c r="BA11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB11" t="n">
         <v>13</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-4-2012-13</t>
+          <t>2012-12-04</t>
         </is>
       </c>
     </row>
@@ -2486,106 +2553,106 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
         <v>8</v>
       </c>
       <c r="G12" t="n">
-        <v>0.529</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="n">
         <v>48.6</v>
       </c>
       <c r="I12" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J12" t="n">
-        <v>85.2</v>
+        <v>84.2</v>
       </c>
       <c r="K12" t="n">
-        <v>0.439</v>
+        <v>0.443</v>
       </c>
       <c r="L12" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M12" t="n">
-        <v>26.4</v>
+        <v>25.9</v>
       </c>
       <c r="N12" t="n">
-        <v>0.348</v>
+        <v>0.36</v>
       </c>
       <c r="O12" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="P12" t="n">
-        <v>25.6</v>
+        <v>25.3</v>
       </c>
       <c r="Q12" t="n">
         <v>0.773</v>
       </c>
       <c r="R12" t="n">
-        <v>13.1</v>
+        <v>12.6</v>
       </c>
       <c r="S12" t="n">
-        <v>32.1</v>
+        <v>32.3</v>
       </c>
       <c r="T12" t="n">
-        <v>45.2</v>
+        <v>44.9</v>
       </c>
       <c r="U12" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V12" t="n">
-        <v>16.3</v>
+        <v>16.7</v>
       </c>
       <c r="W12" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X12" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.7</v>
+        <v>19.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>19.8</v>
+        <v>19.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.7</v>
+        <v>103.5</v>
       </c>
       <c r="AC12" t="n">
         <v>1.1</v>
       </c>
       <c r="AD12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG12" t="n">
         <v>13</v>
       </c>
-      <c r="AE12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>11</v>
-      </c>
       <c r="AH12" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AI12" t="n">
         <v>9</v>
       </c>
       <c r="AJ12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK12" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AL12" t="n">
         <v>2</v>
@@ -2594,10 +2661,10 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP12" t="n">
         <v>4</v>
@@ -2606,10 +2673,10 @@
         <v>9</v>
       </c>
       <c r="AR12" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AS12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT12" t="n">
         <v>6</v>
@@ -2618,22 +2685,22 @@
         <v>10</v>
       </c>
       <c r="AV12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AW12" t="n">
         <v>7</v>
       </c>
       <c r="AX12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AY12" t="n">
         <v>26</v>
       </c>
-      <c r="AY12" t="n">
-        <v>27</v>
-      </c>
       <c r="AZ12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB12" t="n">
         <v>3</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-4-2012-13</t>
+          <t>2012-12-04</t>
         </is>
       </c>
     </row>
@@ -2668,112 +2735,112 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" t="n">
         <v>9</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5</v>
+        <v>0.471</v>
       </c>
       <c r="H13" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="I13" t="n">
-        <v>33.6</v>
+        <v>33.8</v>
       </c>
       <c r="J13" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K13" t="n">
-        <v>0.411</v>
+        <v>0.414</v>
       </c>
       <c r="L13" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="M13" t="n">
-        <v>19.4</v>
+        <v>19.9</v>
       </c>
       <c r="N13" t="n">
-        <v>0.327</v>
+        <v>0.33</v>
       </c>
       <c r="O13" t="n">
-        <v>16.8</v>
+        <v>16.6</v>
       </c>
       <c r="P13" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.725</v>
+        <v>0.724</v>
       </c>
       <c r="R13" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="S13" t="n">
-        <v>34.3</v>
+        <v>34.5</v>
       </c>
       <c r="T13" t="n">
-        <v>47.3</v>
+        <v>47.4</v>
       </c>
       <c r="U13" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="V13" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="W13" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="X13" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AA13" t="n">
         <v>21.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>90.3</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.8</v>
+        <v>-1.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AF13" t="n">
         <v>16</v>
       </c>
       <c r="AG13" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AM13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN13" t="n">
         <v>26</v>
@@ -2782,13 +2849,13 @@
         <v>17</v>
       </c>
       <c r="AP13" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AQ13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS13" t="n">
         <v>1</v>
@@ -2797,19 +2864,19 @@
         <v>1</v>
       </c>
       <c r="AU13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AW13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX13" t="n">
         <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ13" t="n">
         <v>8</v>
@@ -2818,10 +2885,10 @@
         <v>10</v>
       </c>
       <c r="BB13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-4-2012-13</t>
+          <t>2012-12-04</t>
         </is>
       </c>
     </row>
@@ -2928,43 +2995,43 @@
         <v>5.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
       </c>
       <c r="AF14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG14" t="n">
         <v>7</v>
       </c>
-      <c r="AG14" t="n">
-        <v>6</v>
-      </c>
       <c r="AH14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
         <v>6</v>
       </c>
       <c r="AJ14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK14" t="n">
         <v>3</v>
       </c>
       <c r="AL14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM14" t="n">
         <v>14</v>
       </c>
-      <c r="AM14" t="n">
-        <v>13</v>
-      </c>
       <c r="AN14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO14" t="n">
         <v>10</v>
       </c>
       <c r="AP14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ14" t="n">
         <v>17</v>
@@ -2991,7 +3058,7 @@
         <v>8</v>
       </c>
       <c r="AY14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ14" t="n">
         <v>27</v>
@@ -3000,7 +3067,7 @@
         <v>8</v>
       </c>
       <c r="BB14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-4-2012-13</t>
+          <t>2012-12-04</t>
         </is>
       </c>
     </row>
@@ -3032,94 +3099,94 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" t="n">
         <v>8</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" t="n">
-        <v>0.444</v>
+        <v>0.471</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J15" t="n">
-        <v>78.5</v>
+        <v>78.2</v>
       </c>
       <c r="K15" t="n">
         <v>0.457</v>
       </c>
       <c r="L15" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M15" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.372</v>
+        <v>0.374</v>
       </c>
       <c r="O15" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="P15" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.664</v>
+        <v>0.665</v>
       </c>
       <c r="R15" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="S15" t="n">
-        <v>33.3</v>
+        <v>33.1</v>
       </c>
       <c r="T15" t="n">
-        <v>46.3</v>
+        <v>45.9</v>
       </c>
       <c r="U15" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="V15" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="W15" t="n">
         <v>7.7</v>
       </c>
       <c r="X15" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.8</v>
+        <v>19.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.9</v>
+        <v>100.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF15" t="n">
         <v>16</v>
       </c>
-      <c r="AF15" t="n">
-        <v>20</v>
-      </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AH15" t="n">
         <v>28</v>
@@ -3140,7 +3207,7 @@
         <v>6</v>
       </c>
       <c r="AN15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO15" t="n">
         <v>2</v>
@@ -3152,7 +3219,7 @@
         <v>30</v>
       </c>
       <c r="AR15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS15" t="n">
         <v>3</v>
@@ -3161,28 +3228,28 @@
         <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AV15" t="n">
         <v>30</v>
       </c>
       <c r="AW15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX15" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AY15" t="n">
         <v>11</v>
       </c>
       <c r="AZ15" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
       </c>
       <c r="BB15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC15" t="n">
         <v>8</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-4-2012-13</t>
+          <t>2012-12-04</t>
         </is>
       </c>
     </row>
@@ -3214,85 +3281,85 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" t="n">
         <v>3</v>
       </c>
       <c r="G16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H16" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="J16" t="n">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.439</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="M16" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="O16" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="P16" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="Q16" t="n">
         <v>0.8129999999999999</v>
       </c>
-      <c r="H16" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="I16" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="J16" t="n">
-        <v>83.7</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.441</v>
-      </c>
-      <c r="L16" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="M16" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="O16" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="P16" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.8100000000000001</v>
-      </c>
       <c r="R16" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="S16" t="n">
-        <v>29.4</v>
+        <v>29</v>
       </c>
       <c r="T16" t="n">
-        <v>42.3</v>
+        <v>41.8</v>
       </c>
       <c r="U16" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="V16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="W16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="Z16" t="n">
         <v>21.2</v>
       </c>
-      <c r="V16" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="W16" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="X16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>21.3</v>
-      </c>
       <c r="AA16" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="AB16" t="n">
-        <v>99.3</v>
+        <v>98.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3304,31 +3371,31 @@
         <v>1</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ16" t="n">
         <v>10</v>
       </c>
       <c r="AK16" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AL16" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AM16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN16" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AO16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ16" t="n">
         <v>2</v>
@@ -3337,34 +3404,34 @@
         <v>9</v>
       </c>
       <c r="AS16" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AT16" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AU16" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AV16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AW16" t="n">
         <v>2</v>
       </c>
       <c r="AX16" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AY16" t="n">
         <v>20</v>
       </c>
       <c r="AZ16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA16" t="n">
         <v>3</v>
       </c>
       <c r="BB16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC16" t="n">
         <v>3</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-4-2012-13</t>
+          <t>2012-12-04</t>
         </is>
       </c>
     </row>
@@ -3396,103 +3463,103 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" t="n">
         <v>12</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
       </c>
       <c r="I17" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="J17" t="n">
-        <v>79.59999999999999</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.493</v>
+        <v>0.495</v>
       </c>
       <c r="L17" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M17" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="N17" t="n">
-        <v>0.413</v>
+        <v>0.425</v>
       </c>
       <c r="O17" t="n">
-        <v>17.4</v>
+        <v>17.8</v>
       </c>
       <c r="P17" t="n">
-        <v>22.9</v>
+        <v>23.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.757</v>
+        <v>0.761</v>
       </c>
       <c r="R17" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="S17" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="T17" t="n">
-        <v>39.4</v>
+        <v>39.1</v>
       </c>
       <c r="U17" t="n">
-        <v>23.4</v>
+        <v>23.1</v>
       </c>
       <c r="V17" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W17" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X17" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z17" t="n">
         <v>19.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>104.4</v>
+        <v>104.6</v>
       </c>
       <c r="AC17" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AE17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI17" t="n">
         <v>1</v>
       </c>
       <c r="AJ17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK17" t="n">
         <v>1</v>
@@ -3501,19 +3568,19 @@
         <v>3</v>
       </c>
       <c r="AM17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AN17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AQ17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3522,7 +3589,7 @@
         <v>12</v>
       </c>
       <c r="AT17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU17" t="n">
         <v>4</v>
@@ -3531,19 +3598,19 @@
         <v>5</v>
       </c>
       <c r="AW17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AX17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY17" t="n">
         <v>2</v>
       </c>
       <c r="AZ17" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA17" t="n">
         <v>13</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>16</v>
       </c>
       <c r="BB17" t="n">
         <v>2</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-4-2012-13</t>
+          <t>2012-12-04</t>
         </is>
       </c>
     </row>
@@ -3656,19 +3723,19 @@
         <v>-1.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE18" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG18" t="n">
         <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI18" t="n">
         <v>5</v>
@@ -3677,7 +3744,7 @@
         <v>1</v>
       </c>
       <c r="AK18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL18" t="n">
         <v>25</v>
@@ -3701,19 +3768,19 @@
         <v>16</v>
       </c>
       <c r="AS18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT18" t="n">
         <v>17</v>
       </c>
       <c r="AU18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX18" t="n">
         <v>2</v>
@@ -3722,13 +3789,13 @@
         <v>3</v>
       </c>
       <c r="AZ18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA18" t="n">
         <v>27</v>
       </c>
       <c r="BB18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC18" t="n">
         <v>20</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-4-2012-13</t>
+          <t>2012-12-04</t>
         </is>
       </c>
     </row>
@@ -3760,100 +3827,100 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" t="n">
         <v>8</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.467</v>
       </c>
       <c r="H19" t="n">
         <v>48</v>
       </c>
       <c r="I19" t="n">
-        <v>34.1</v>
+        <v>33.6</v>
       </c>
       <c r="J19" t="n">
-        <v>79.8</v>
+        <v>80</v>
       </c>
       <c r="K19" t="n">
-        <v>0.427</v>
+        <v>0.42</v>
       </c>
       <c r="L19" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="M19" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.305</v>
+        <v>0.286</v>
       </c>
       <c r="O19" t="n">
-        <v>19.3</v>
+        <v>19.9</v>
       </c>
       <c r="P19" t="n">
-        <v>26.4</v>
+        <v>27.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.728</v>
+        <v>0.734</v>
       </c>
       <c r="R19" t="n">
-        <v>13.1</v>
+        <v>13.5</v>
       </c>
       <c r="S19" t="n">
-        <v>32.3</v>
+        <v>31.8</v>
       </c>
       <c r="T19" t="n">
-        <v>45.4</v>
+        <v>45.3</v>
       </c>
       <c r="U19" t="n">
-        <v>21.1</v>
+        <v>20.6</v>
       </c>
       <c r="V19" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="W19" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X19" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.9</v>
+        <v>23.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>93.3</v>
+        <v>92.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.9</v>
+        <v>-0.1</v>
       </c>
       <c r="AD19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG19" t="n">
         <v>20</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>13</v>
       </c>
       <c r="AH19" t="n">
         <v>28</v>
       </c>
       <c r="AI19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="n">
         <v>23</v>
@@ -3862,58 +3929,58 @@
         <v>26</v>
       </c>
       <c r="AL19" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AM19" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AN19" t="n">
         <v>30</v>
       </c>
       <c r="AO19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AP19" t="n">
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR19" t="n">
         <v>4</v>
       </c>
       <c r="AS19" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AT19" t="n">
         <v>4</v>
       </c>
       <c r="AU19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AV19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW19" t="n">
         <v>22</v>
       </c>
       <c r="AX19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA19" t="n">
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="BC19" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-4-2012-13</t>
+          <t>2012-12-04</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-5.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE20" t="n">
         <v>26</v>
@@ -4032,7 +4099,7 @@
         <v>26</v>
       </c>
       <c r="AH20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI20" t="n">
         <v>26</v>
@@ -4044,7 +4111,7 @@
         <v>14</v>
       </c>
       <c r="AL20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM20" t="n">
         <v>21</v>
@@ -4056,7 +4123,7 @@
         <v>22</v>
       </c>
       <c r="AP20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ20" t="n">
         <v>4</v>
@@ -4077,7 +4144,7 @@
         <v>11</v>
       </c>
       <c r="AW20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX20" t="n">
         <v>18</v>
@@ -4092,7 +4159,7 @@
         <v>19</v>
       </c>
       <c r="BB20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC20" t="n">
         <v>26</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-4-2012-13</t>
+          <t>2012-12-04</t>
         </is>
       </c>
     </row>
@@ -4202,19 +4269,19 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH21" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI21" t="n">
         <v>7</v>
@@ -4232,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO21" t="n">
         <v>23</v>
@@ -4253,7 +4320,7 @@
         <v>26</v>
       </c>
       <c r="AU21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
@@ -4271,7 +4338,7 @@
         <v>3</v>
       </c>
       <c r="BA21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB21" t="n">
         <v>4</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-4-2012-13</t>
+          <t>2012-12-04</t>
         </is>
       </c>
     </row>
@@ -4306,97 +4373,97 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" t="n">
         <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>0.789</v>
+        <v>0.778</v>
       </c>
       <c r="H22" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I22" t="n">
-        <v>37.5</v>
+        <v>37.3</v>
       </c>
       <c r="J22" t="n">
-        <v>76.2</v>
+        <v>76.8</v>
       </c>
       <c r="K22" t="n">
-        <v>0.492</v>
+        <v>0.486</v>
       </c>
       <c r="L22" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="M22" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="O22" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="P22" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="R22" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="S22" t="n">
+        <v>33</v>
+      </c>
+      <c r="T22" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="U22" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="V22" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="W22" t="n">
         <v>7.7</v>
       </c>
-      <c r="M22" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0.421</v>
-      </c>
-      <c r="O22" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="P22" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.837</v>
-      </c>
-      <c r="R22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="T22" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="U22" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="V22" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="W22" t="n">
-        <v>7.6</v>
-      </c>
       <c r="X22" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.7</v>
+        <v>105.1</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
       </c>
       <c r="AF22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AI22" t="n">
         <v>8</v>
@@ -4411,10 +4478,10 @@
         <v>10</v>
       </c>
       <c r="AM22" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AN22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4426,22 +4493,22 @@
         <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS22" t="n">
         <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
@@ -4453,7 +4520,7 @@
         <v>20</v>
       </c>
       <c r="BA22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-4-2012-13</t>
+          <t>2012-12-04</t>
         </is>
       </c>
     </row>
@@ -4566,37 +4633,37 @@
         <v>-3.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG23" t="n">
         <v>23</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
         <v>12</v>
       </c>
       <c r="AJ23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM23" t="n">
         <v>26</v>
       </c>
       <c r="AN23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
@@ -4608,16 +4675,16 @@
         <v>6</v>
       </c>
       <c r="AR23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS23" t="n">
         <v>5</v>
       </c>
       <c r="AT23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV23" t="n">
         <v>13</v>
@@ -4626,7 +4693,7 @@
         <v>30</v>
       </c>
       <c r="AX23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY23" t="n">
         <v>14</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-4-2012-13</t>
+          <t>2012-12-04</t>
         </is>
       </c>
     </row>
@@ -4670,100 +4737,100 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G24" t="n">
-        <v>0.556</v>
+        <v>0.588</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="J24" t="n">
         <v>83</v>
       </c>
       <c r="K24" t="n">
-        <v>0.43</v>
+        <v>0.431</v>
       </c>
       <c r="L24" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="M24" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="N24" t="n">
-        <v>0.374</v>
+        <v>0.382</v>
       </c>
       <c r="O24" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="P24" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.756</v>
+        <v>0.769</v>
       </c>
       <c r="R24" t="n">
-        <v>10.7</v>
+        <v>10.5</v>
       </c>
       <c r="S24" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="T24" t="n">
         <v>40.8</v>
       </c>
       <c r="U24" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="V24" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="W24" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X24" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.8</v>
+        <v>19.1</v>
       </c>
       <c r="AA24" t="n">
         <v>17.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>92.8</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>-1.7</v>
+        <v>-0.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
         <v>8</v>
       </c>
       <c r="AF24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH24" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ24" t="n">
         <v>14</v>
@@ -4772,10 +4839,10 @@
         <v>24</v>
       </c>
       <c r="AL24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM24" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AN24" t="n">
         <v>6</v>
@@ -4787,19 +4854,19 @@
         <v>28</v>
       </c>
       <c r="AQ24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT24" t="n">
         <v>21</v>
       </c>
       <c r="AU24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV24" t="n">
         <v>2</v>
@@ -4808,22 +4875,22 @@
         <v>15</v>
       </c>
       <c r="AX24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AY24" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA24" t="n">
         <v>29</v>
       </c>
       <c r="BB24" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="BC24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-4-2012-13</t>
+          <t>2012-12-04</t>
         </is>
       </c>
     </row>
@@ -4852,97 +4919,97 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G25" t="n">
-        <v>0.368</v>
+        <v>0.389</v>
       </c>
       <c r="H25" t="n">
-        <v>48.8</v>
+        <v>48.6</v>
       </c>
       <c r="I25" t="n">
         <v>38.5</v>
       </c>
       <c r="J25" t="n">
-        <v>85.90000000000001</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L25" t="n">
         <v>6.2</v>
       </c>
       <c r="M25" t="n">
-        <v>17.9</v>
+        <v>18.2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.343</v>
+        <v>0.339</v>
       </c>
       <c r="O25" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="P25" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.744</v>
+        <v>0.745</v>
       </c>
       <c r="R25" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="S25" t="n">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
       <c r="T25" t="n">
-        <v>40.8</v>
+        <v>41.3</v>
       </c>
       <c r="U25" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V25" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="W25" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X25" t="n">
         <v>6.1</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="Z25" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB25" t="n">
         <v>98.40000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>-4.6</v>
+        <v>-4.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG25" t="n">
         <v>24</v>
       </c>
       <c r="AH25" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AI25" t="n">
         <v>4</v>
@@ -4960,13 +5027,13 @@
         <v>24</v>
       </c>
       <c r="AN25" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AO25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ25" t="n">
         <v>20</v>
@@ -4975,31 +5042,31 @@
         <v>13</v>
       </c>
       <c r="AS25" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AT25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW25" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AX25" t="n">
         <v>9</v>
       </c>
       <c r="AY25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB25" t="n">
         <v>14</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-4-2012-13</t>
+          <t>2012-12-04</t>
         </is>
       </c>
     </row>
@@ -5112,19 +5179,19 @@
         <v>-3.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE26" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI26" t="n">
         <v>17</v>
@@ -5142,13 +5209,13 @@
         <v>3</v>
       </c>
       <c r="AN26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO26" t="n">
         <v>14</v>
       </c>
       <c r="AP26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ26" t="n">
         <v>22</v>
@@ -5163,7 +5230,7 @@
         <v>24</v>
       </c>
       <c r="AU26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV26" t="n">
         <v>18</v>
@@ -5184,7 +5251,7 @@
         <v>12</v>
       </c>
       <c r="BB26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC26" t="n">
         <v>23</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-4-2012-13</t>
+          <t>2012-12-04</t>
         </is>
       </c>
     </row>
@@ -5294,19 +5361,19 @@
         <v>-6.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
       </c>
       <c r="AF27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG27" t="n">
         <v>27</v>
       </c>
       <c r="AH27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI27" t="n">
         <v>18</v>
@@ -5324,7 +5391,7 @@
         <v>25</v>
       </c>
       <c r="AN27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO27" t="n">
         <v>26</v>
@@ -5348,16 +5415,16 @@
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX27" t="n">
         <v>25</v>
       </c>
       <c r="AY27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ27" t="n">
         <v>28</v>
@@ -5366,7 +5433,7 @@
         <v>28</v>
       </c>
       <c r="BB27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-4-2012-13</t>
+          <t>2012-12-04</t>
         </is>
       </c>
     </row>
@@ -5476,19 +5543,19 @@
         <v>6.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG28" t="n">
         <v>3</v>
       </c>
       <c r="AH28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI28" t="n">
         <v>2</v>
@@ -5506,7 +5573,7 @@
         <v>8</v>
       </c>
       <c r="AN28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO28" t="n">
         <v>21</v>
@@ -5521,7 +5588,7 @@
         <v>28</v>
       </c>
       <c r="AS28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT28" t="n">
         <v>18</v>
@@ -5533,10 +5600,10 @@
         <v>16</v>
       </c>
       <c r="AW28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY28" t="n">
         <v>16</v>
@@ -5545,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB28" t="n">
         <v>5</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-4-2012-13</t>
+          <t>2012-12-04</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-4.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
         <v>27</v>
@@ -5670,28 +5737,28 @@
         <v>28</v>
       </c>
       <c r="AH29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI29" t="n">
         <v>19</v>
       </c>
       <c r="AJ29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK29" t="n">
         <v>25</v>
       </c>
       <c r="AL29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO29" t="n">
         <v>12</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>11</v>
       </c>
       <c r="AP29" t="n">
         <v>18</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-4-2012-13</t>
+          <t>2012-12-04</t>
         </is>
       </c>
     </row>
@@ -5846,10 +5913,10 @@
         <v>10</v>
       </c>
       <c r="AF30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH30" t="n">
         <v>8</v>
@@ -5867,7 +5934,7 @@
         <v>16</v>
       </c>
       <c r="AM30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN30" t="n">
         <v>9</v>
@@ -5876,10 +5943,10 @@
         <v>8</v>
       </c>
       <c r="AP30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR30" t="n">
         <v>3</v>
@@ -5909,13 +5976,13 @@
         <v>26</v>
       </c>
       <c r="BA30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB30" t="n">
         <v>9</v>
       </c>
       <c r="BC30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-4-2012-13</t>
+          <t>2012-12-04</t>
         </is>
       </c>
     </row>
@@ -5944,82 +6011,82 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>13</v>
       </c>
       <c r="G31" t="n">
-        <v>0.133</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="H31" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="I31" t="n">
-        <v>34.2</v>
+        <v>33.9</v>
       </c>
       <c r="J31" t="n">
-        <v>83.8</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.408</v>
+        <v>0.403</v>
       </c>
       <c r="L31" t="n">
         <v>6.6</v>
       </c>
       <c r="M31" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="N31" t="n">
-        <v>0.306</v>
+        <v>0.302</v>
       </c>
       <c r="O31" t="n">
-        <v>15.4</v>
+        <v>14.9</v>
       </c>
       <c r="P31" t="n">
-        <v>20.5</v>
+        <v>19.9</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.75</v>
+        <v>0.749</v>
       </c>
       <c r="R31" t="n">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="S31" t="n">
-        <v>30.7</v>
+        <v>30.3</v>
       </c>
       <c r="T31" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U31" t="n">
-        <v>20.5</v>
+        <v>19.8</v>
       </c>
       <c r="V31" t="n">
-        <v>15.9</v>
+        <v>16.2</v>
       </c>
       <c r="W31" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X31" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.3</v>
+        <v>21.9</v>
       </c>
       <c r="AA31" t="n">
         <v>19.4</v>
       </c>
       <c r="AB31" t="n">
-        <v>90.40000000000001</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.5</v>
+        <v>-8.4</v>
       </c>
       <c r="AD31" t="n">
         <v>29</v>
@@ -6034,67 +6101,67 @@
         <v>30</v>
       </c>
       <c r="AH31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI31" t="n">
         <v>28</v>
       </c>
       <c r="AJ31" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AK31" t="n">
         <v>30</v>
       </c>
       <c r="AL31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM31" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AN31" t="n">
         <v>29</v>
       </c>
       <c r="AO31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP31" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ31" t="n">
         <v>18</v>
       </c>
       <c r="AR31" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AS31" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AT31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>25</v>
+      </c>
+      <c r="AW31" t="n">
         <v>9</v>
       </c>
-      <c r="AU31" t="n">
-        <v>24</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>24</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>10</v>
-      </c>
       <c r="AX31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY31" t="n">
         <v>12</v>
       </c>
       <c r="AZ31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BA31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC31" t="n">
         <v>30</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-4-2012-13</t>
+          <t>2012-12-04</t>
         </is>
       </c>
     </row>
